--- a/biology/Histoire de la zoologie et de la botanique/Shirley_Strum/Shirley_Strum.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Shirley_Strum/Shirley_Strum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shirley Carol Strum (née en 1947) est une biologiste et anthropologue américaine dont la plupart des travaux sont consacrés aux primates qu'elle a étudié pendant vingt-cinq ans[1].
-Après avoir complété des études (PhD) en anthropologie à l'Université Berkeley, elle commence des recherches sur les babouins au Kenya en 1972 dont les résultats seront publiés sous le titre Almost human. Parallèlement, elle enseigne à l’Université de San Diego[1]. Durant les années 1980, le sociologue Bruno Latour s'est intéressé à ses recherches sur la vie sociale des babouins. C'est d'ailleurs sous l'influence de ces travaux que Latour et Michel Callon vont élaborer la sociologie de la traduction, connue ensuite sous le nom de théorie de l'acteur-réseau.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shirley Carol Strum (née en 1947) est une biologiste et anthropologue américaine dont la plupart des travaux sont consacrés aux primates qu'elle a étudié pendant vingt-cinq ans.
+Après avoir complété des études (PhD) en anthropologie à l'Université Berkeley, elle commence des recherches sur les babouins au Kenya en 1972 dont les résultats seront publiés sous le titre Almost human. Parallèlement, elle enseigne à l’Université de San Diego. Durant les années 1980, le sociologue Bruno Latour s'est intéressé à ses recherches sur la vie sociale des babouins. C'est d'ailleurs sous l'influence de ces travaux que Latour et Michel Callon vont élaborer la sociologie de la traduction, connue ensuite sous le nom de théorie de l'acteur-réseau.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Almost human : a journey into the world of baboons ; drawings by Deborah Ross, New York : Random House, 1987 ; rééd. Chicago : University of Chicago Press, 2001.
 Traduction française: Voyage chez les babouins, traduit de l'anglais par François Simon-Duneau ; illustrations de Deborah Ross, Paris, Éditions du Seuil, « Points-Sciences », 1995.
@@ -546,7 +560,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notice biographique, e-museum, Minnesota State University, Mankato</t>
         </is>
